--- a/medicine/Mort/Barathre/Barathre.xlsx
+++ b/medicine/Mort/Barathre/Barathre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Barathre (en grec ancien : βάραθρον / bárathron) est une fosse, un ravin ou un gouffre d'Athènes, sur le territoire de la tribu des Œnéides (bourg des Céraïdes). Y étaient précipités les condamnés à mort[1] à l'époque de la Grèce antique. Il est assimilé au Céadas de Lacédémone, et parfois même confondu avec lui[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Barathre (en grec ancien : βάραθρον / bárathron) est une fosse, un ravin ou un gouffre d'Athènes, sur le territoire de la tribu des Œnéides (bourg des Céraïdes). Y étaient précipités les condamnés à mort à l'époque de la Grèce antique. Il est assimilé au Céadas de Lacédémone, et parfois même confondu avec lui.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Suppliciés au Barathre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Miltiade, vainqueur de la bataille de Marathon[3] (finalement jeté en prison)[4].
-Dans son opposition à Thémistocle, Aristide déclare que les Athéniens ne pourraient sauver la République athénienne « à moins qu'ils ne le jetassent avec Thémistocle dans le Barathre »[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Miltiade, vainqueur de la bataille de Marathon (finalement jeté en prison).
+Dans son opposition à Thémistocle, Aristide déclare que les Athéniens ne pourraient sauver la République athénienne « à moins qu'ils ne le jetassent avec Thémistocle dans le Barathre ».</t>
         </is>
       </c>
     </row>
